--- a/RUDN/Correlations/deep.Corr_in_NRU.Micronesia.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_NRU.Micronesia.xlsx
@@ -13,10 +13,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>SH.DYN.MORT:NRU</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:NRU</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:NRU</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:NRU</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:NRU</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:NRU</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:NRU</t>
+  </si>
+  <si>
+    <t>SP.POP.GROW:NRU</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:NRU</t>
+  </si>
+  <si>
+    <t>SP.URB.GROW:NRU</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:NRU</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.GROW:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.GROW:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:NRU:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:NRU:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:NRU:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +152,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +470,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>-0.8194659180101216</v>
+      </c>
+      <c r="K2">
+        <v>-0.8194659180101216</v>
+      </c>
+      <c r="L2">
+        <v>-0.9740563297632063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>0.0003346777632199833</v>
+      </c>
+      <c r="K3">
+        <v>0.0003346777632199833</v>
+      </c>
+      <c r="L3">
+        <v>4.163060662760282e-09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.9973006633590551</v>
+      </c>
+      <c r="I4">
+        <v>-0.815020434971735</v>
+      </c>
+      <c r="K4">
+        <v>-0.815020434971735</v>
+      </c>
+      <c r="L4">
+        <v>-0.9736201004668324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>5.55291310225209e-15</v>
+      </c>
+      <c r="I5">
+        <v>0.0003833193688593031</v>
+      </c>
+      <c r="K5">
+        <v>0.0003833193688593031</v>
+      </c>
+      <c r="L5">
+        <v>4.596771238611413e-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.1475723611117722</v>
+      </c>
+      <c r="C6">
+        <v>0.1736615227246191</v>
+      </c>
+      <c r="G6">
+        <v>0.9447816134045043</v>
+      </c>
+      <c r="H6">
+        <v>0.1484548726300274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.6146435665072636</v>
+      </c>
+      <c r="C7">
+        <v>0.5526852969427469</v>
+      </c>
+      <c r="G7">
+        <v>3.631130938495948e-07</v>
+      </c>
+      <c r="H7">
+        <v>0.6125050529946128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>-0.1742068816637628</v>
+      </c>
+      <c r="C8">
+        <v>-0.1684355298278711</v>
+      </c>
+      <c r="D8">
+        <v>0.6253130985584959</v>
+      </c>
+      <c r="G8">
+        <v>0.5750333824244515</v>
+      </c>
+      <c r="H8">
+        <v>-0.1835027718022363</v>
+      </c>
+      <c r="I8">
+        <v>0.2796455055994613</v>
+      </c>
+      <c r="K8">
+        <v>0.2796455055994628</v>
+      </c>
+      <c r="L8">
+        <v>0.2476898804380201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.5514191979926548</v>
+      </c>
+      <c r="C9">
+        <v>0.5648801962908434</v>
+      </c>
+      <c r="D9">
+        <v>0.01678108934856845</v>
+      </c>
+      <c r="G9">
+        <v>0.03145601677113352</v>
+      </c>
+      <c r="H9">
+        <v>0.530031023389012</v>
+      </c>
+      <c r="I9">
+        <v>0.3328991262836157</v>
+      </c>
+      <c r="K9">
+        <v>0.3328991262836128</v>
+      </c>
+      <c r="L9">
+        <v>0.3932237180318069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0.6832181119885684</v>
+      </c>
+      <c r="E10">
+        <v>0.4589437966760851</v>
+      </c>
+      <c r="F10">
+        <v>0.5167822579924759</v>
+      </c>
+      <c r="G10">
+        <v>0.7952246814649249</v>
+      </c>
+      <c r="J10">
+        <v>0.100787015746348</v>
+      </c>
+      <c r="L10">
+        <v>0.100787015746348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.007071491182485855</v>
+      </c>
+      <c r="E11">
+        <v>0.09879725586216918</v>
+      </c>
+      <c r="F11">
+        <v>0.05846593467770238</v>
+      </c>
+      <c r="G11">
+        <v>0.0006738341811857194</v>
+      </c>
+      <c r="J11">
+        <v>0.7317295839213481</v>
+      </c>
+      <c r="L11">
+        <v>0.7317295839213481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>-0.1813155403600528</v>
+      </c>
+      <c r="C12">
+        <v>-0.1328336682276295</v>
+      </c>
+      <c r="D12">
+        <v>0.7659249316505673</v>
+      </c>
+      <c r="E12">
+        <v>0.6257424391449474</v>
+      </c>
+      <c r="G12">
+        <v>0.8716630094369366</v>
+      </c>
+      <c r="H12">
+        <v>-0.1835521487584834</v>
+      </c>
+      <c r="I12">
+        <v>0.2562213915680869</v>
+      </c>
+      <c r="J12">
+        <v>0.2503994169248341</v>
+      </c>
+      <c r="K12">
+        <v>0.2562213915680871</v>
+      </c>
+      <c r="L12">
+        <v>0.2503994169248341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.5350302909076996</v>
+      </c>
+      <c r="C13">
+        <v>0.6507686690947603</v>
+      </c>
+      <c r="D13">
+        <v>0.001403510589711289</v>
+      </c>
+      <c r="E13">
+        <v>0.01668395664039079</v>
+      </c>
+      <c r="G13">
+        <v>4.864836942984393e-05</v>
+      </c>
+      <c r="H13">
+        <v>0.5299184029560873</v>
+      </c>
+      <c r="I13">
+        <v>0.3765859805524447</v>
+      </c>
+      <c r="J13">
+        <v>0.3878983699091205</v>
+      </c>
+      <c r="K13">
+        <v>0.3765859805524444</v>
+      </c>
+      <c r="L13">
+        <v>0.3878983699091205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>0.1002908828845799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>0.7330061112526426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.9996570771178429</v>
+      </c>
+      <c r="C16">
+        <v>0.996981675811609</v>
+      </c>
+      <c r="I16">
+        <v>-0.8203396746132876</v>
+      </c>
+      <c r="K16">
+        <v>-0.8203396746132876</v>
+      </c>
+      <c r="L16">
+        <v>-0.971078942851816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>2.346127618954127e-20</v>
+      </c>
+      <c r="C17">
+        <v>1.084617704298322e-14</v>
+      </c>
+      <c r="I17">
+        <v>0.0003257309979190381</v>
+      </c>
+      <c r="K17">
+        <v>0.0003257309979190381</v>
+      </c>
+      <c r="L17">
+        <v>7.937947779080577e-09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.7926150159436334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>2.703668094834745e-95</v>
+      </c>
+      <c r="L19">
+        <v>0.0007226225443518731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>-0.9740563297632063</v>
+      </c>
+      <c r="C20">
+        <v>-0.9736201004668324</v>
+      </c>
+      <c r="E20">
+        <v>0.2476898804380201</v>
+      </c>
+      <c r="G20">
+        <v>0.1002908828845799</v>
+      </c>
+      <c r="H20">
+        <v>-0.971078942851816</v>
+      </c>
+      <c r="I20">
+        <v>0.7926150159436334</v>
+      </c>
+      <c r="K20">
+        <v>0.7926150159436334</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>4.163060662760282e-09</v>
+      </c>
+      <c r="C21">
+        <v>4.596771238611413e-09</v>
+      </c>
+      <c r="E21">
+        <v>0.3932237180318069</v>
+      </c>
+      <c r="G21">
+        <v>0.7330061112526426</v>
+      </c>
+      <c r="H21">
+        <v>7.937947779080577e-09</v>
+      </c>
+      <c r="I21">
+        <v>0.0007226225443518731</v>
+      </c>
+      <c r="K21">
+        <v>0.0007226225443518731</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>0.7926150159436334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>0.0007226225443518731</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>